--- a/Code/Results/Cases/Case_0_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_163/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.14547106255173</v>
+        <v>13.58741923555912</v>
       </c>
       <c r="D2">
-        <v>4.001917415879976</v>
+        <v>6.720658268151265</v>
       </c>
       <c r="E2">
-        <v>11.35841866376853</v>
+        <v>13.97609749764188</v>
       </c>
       <c r="F2">
-        <v>27.36865265149491</v>
+        <v>34.17082442443397</v>
       </c>
       <c r="G2">
-        <v>39.41249415171467</v>
+        <v>46.08006165244603</v>
       </c>
       <c r="H2">
-        <v>12.05563202500627</v>
+        <v>18.41844481081619</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.65437979956485</v>
+        <v>19.19654424807838</v>
       </c>
       <c r="L2">
-        <v>6.044637010026664</v>
+        <v>9.340893797938046</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.53607424653023</v>
+        <v>13.49877667795651</v>
       </c>
       <c r="D3">
-        <v>4.128271531784939</v>
+        <v>6.754175961686927</v>
       </c>
       <c r="E3">
-        <v>10.86430154278519</v>
+        <v>13.92457439419824</v>
       </c>
       <c r="F3">
-        <v>26.48207898281805</v>
+        <v>34.1932811437545</v>
       </c>
       <c r="G3">
-        <v>37.96182604057329</v>
+        <v>46.08515575831538</v>
       </c>
       <c r="H3">
-        <v>11.9602069565617</v>
+        <v>18.48773871638137</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.94796304871823</v>
+        <v>18.66762445450748</v>
       </c>
       <c r="L3">
-        <v>5.923368153629884</v>
+        <v>9.347696569258241</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.15693325445435</v>
+        <v>13.44771201267229</v>
       </c>
       <c r="D4">
-        <v>4.206627410447563</v>
+        <v>6.775659834975191</v>
       </c>
       <c r="E4">
-        <v>10.56020785448842</v>
+        <v>13.89630490672468</v>
       </c>
       <c r="F4">
-        <v>25.97012640698935</v>
+        <v>34.22010607048886</v>
       </c>
       <c r="G4">
-        <v>37.12331908384184</v>
+        <v>46.1090620774309</v>
       </c>
       <c r="H4">
-        <v>11.91873897081435</v>
+        <v>18.53532751736474</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.84337397590129</v>
+        <v>18.33841579050765</v>
       </c>
       <c r="L4">
-        <v>5.852240138251232</v>
+        <v>9.353518925269212</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.00133543879313</v>
+        <v>13.42776487924886</v>
       </c>
       <c r="D5">
-        <v>4.238785870009167</v>
+        <v>6.784643008891661</v>
       </c>
       <c r="E5">
-        <v>10.43623431996181</v>
+        <v>13.88563803769561</v>
       </c>
       <c r="F5">
-        <v>25.76960467437795</v>
+        <v>34.23429625013485</v>
       </c>
       <c r="G5">
-        <v>36.79473237154867</v>
+        <v>46.12399394047645</v>
       </c>
       <c r="H5">
-        <v>11.90591076905065</v>
+        <v>18.55598135030281</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.37876595532481</v>
+        <v>18.20334345798747</v>
       </c>
       <c r="L5">
-        <v>5.824086226145297</v>
+        <v>9.356304997364532</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.97543763301585</v>
+        <v>13.42450520068803</v>
       </c>
       <c r="D6">
-        <v>4.244140452844735</v>
+        <v>6.786148478551269</v>
       </c>
       <c r="E6">
-        <v>10.41564948031883</v>
+        <v>13.88391851950358</v>
       </c>
       <c r="F6">
-        <v>25.73679586884518</v>
+        <v>34.23684872601761</v>
       </c>
       <c r="G6">
-        <v>36.74096155145711</v>
+        <v>46.12678568244016</v>
       </c>
       <c r="H6">
-        <v>11.90401958682779</v>
+        <v>18.55948686261329</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.30073840667223</v>
+        <v>18.18086552919701</v>
       </c>
       <c r="L6">
-        <v>5.819461316687239</v>
+        <v>9.356792579528097</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.15483901004202</v>
+        <v>13.44743948701665</v>
       </c>
       <c r="D7">
-        <v>4.207060145728065</v>
+        <v>6.775780059407867</v>
       </c>
       <c r="E7">
-        <v>10.55853593751856</v>
+        <v>13.89615758693459</v>
       </c>
       <c r="F7">
-        <v>25.96738936609884</v>
+        <v>34.22028427715524</v>
       </c>
       <c r="G7">
-        <v>37.11883460547322</v>
+        <v>46.1092424911614</v>
       </c>
       <c r="H7">
-        <v>11.91854979656</v>
+        <v>18.53560096567134</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.83716697345188</v>
+        <v>18.3365975961764</v>
       </c>
       <c r="L7">
-        <v>5.851857086997332</v>
+        <v>9.353554825853475</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.93646389337309</v>
+        <v>13.55616791500774</v>
       </c>
       <c r="D8">
-        <v>4.045344236601065</v>
+        <v>6.732028193244759</v>
       </c>
       <c r="E8">
-        <v>11.18826019818781</v>
+        <v>13.95763812969205</v>
       </c>
       <c r="F8">
-        <v>27.05621242904211</v>
+        <v>34.17585099168849</v>
       </c>
       <c r="G8">
-        <v>38.9014644904169</v>
+        <v>46.07748616335272</v>
       </c>
       <c r="H8">
-        <v>12.01903428165899</v>
+        <v>18.44128678095553</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.07768999972444</v>
+        <v>19.01521369255009</v>
       </c>
       <c r="L8">
-        <v>6.002127964294017</v>
+        <v>9.34289771111186</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.42493591184508</v>
+        <v>13.79525916540423</v>
       </c>
       <c r="D9">
-        <v>3.732768087452465</v>
+        <v>6.653355436798041</v>
       </c>
       <c r="E9">
-        <v>12.41344406443582</v>
+        <v>14.10456257137698</v>
       </c>
       <c r="F9">
-        <v>29.45042255439183</v>
+        <v>34.19289072568493</v>
       </c>
       <c r="G9">
-        <v>42.81207196515457</v>
+        <v>46.18136590608806</v>
       </c>
       <c r="H9">
-        <v>12.36240302810073</v>
+        <v>18.296645232784</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.02927467148488</v>
+        <v>20.30241913223279</v>
       </c>
       <c r="L9">
-        <v>6.32361331322041</v>
+        <v>9.335066666363735</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.4877945020544</v>
+        <v>13.98552675001375</v>
       </c>
       <c r="D10">
-        <v>3.50354820031961</v>
+        <v>6.599831482574789</v>
       </c>
       <c r="E10">
-        <v>13.30426933634517</v>
+        <v>14.2280494557125</v>
       </c>
       <c r="F10">
-        <v>31.37135936023136</v>
+        <v>34.26973018164577</v>
       </c>
       <c r="G10">
-        <v>45.94181470334298</v>
+        <v>46.36031335519947</v>
       </c>
       <c r="H10">
-        <v>12.71813989922142</v>
+        <v>18.21535540670484</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.67645761642353</v>
+        <v>21.21143917509981</v>
       </c>
       <c r="L10">
-        <v>6.576898089316694</v>
+        <v>9.337290548761709</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.96465046019208</v>
+        <v>14.07498332396718</v>
       </c>
       <c r="D11">
-        <v>3.398820922833558</v>
+        <v>6.576396636073274</v>
       </c>
       <c r="E11">
-        <v>13.70742471764945</v>
+        <v>14.28746858327187</v>
       </c>
       <c r="F11">
-        <v>32.28205054581139</v>
+        <v>34.31876344383348</v>
       </c>
       <c r="G11">
-        <v>47.4236462011856</v>
+        <v>46.4641556957265</v>
       </c>
       <c r="H11">
-        <v>12.90553162560857</v>
+        <v>18.18388220176914</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.82843812479646</v>
+        <v>21.6151344684222</v>
       </c>
       <c r="L11">
-        <v>6.696093342044312</v>
+        <v>9.340034369968093</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.14431934929537</v>
+        <v>14.10925123056529</v>
       </c>
       <c r="D12">
-        <v>3.359052219254046</v>
+        <v>6.567652758871183</v>
       </c>
       <c r="E12">
-        <v>13.85982634740147</v>
+        <v>14.31042293890505</v>
       </c>
       <c r="F12">
-        <v>32.63242337202058</v>
+        <v>34.33935945869223</v>
       </c>
       <c r="G12">
-        <v>47.99347502847849</v>
+        <v>46.50670642232494</v>
       </c>
       <c r="H12">
-        <v>12.98043036931434</v>
+        <v>18.17276249312282</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.25745769557785</v>
+        <v>21.76645282508614</v>
       </c>
       <c r="L12">
-        <v>6.741831307499158</v>
+        <v>9.341322195112797</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.10566351971075</v>
+        <v>14.10185396340734</v>
       </c>
       <c r="D13">
-        <v>3.367622771090864</v>
+        <v>6.569530125369452</v>
       </c>
       <c r="E13">
-        <v>13.82701474454371</v>
+        <v>14.30545934701771</v>
       </c>
       <c r="F13">
-        <v>32.55671471357338</v>
+        <v>34.33483351016366</v>
       </c>
       <c r="G13">
-        <v>47.87035858309397</v>
+        <v>46.49739885211202</v>
       </c>
       <c r="H13">
-        <v>12.96412017042869</v>
+        <v>18.17512170173138</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.16537618836562</v>
+        <v>21.73393483492936</v>
       </c>
       <c r="L13">
-        <v>6.731953501325841</v>
+        <v>9.341033779447853</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.97944966070349</v>
+        <v>14.07779484074204</v>
       </c>
       <c r="D14">
-        <v>3.395551608083575</v>
+        <v>6.57567466430867</v>
       </c>
       <c r="E14">
-        <v>13.71996786189584</v>
+        <v>14.28934803752487</v>
       </c>
       <c r="F14">
-        <v>32.31076387841424</v>
+        <v>34.32041723298646</v>
       </c>
       <c r="G14">
-        <v>47.47034968242918</v>
+        <v>46.46759169458416</v>
       </c>
       <c r="H14">
-        <v>12.91161313673746</v>
+        <v>18.18295133526755</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.86387648791752</v>
+        <v>21.62761538511033</v>
       </c>
       <c r="L14">
-        <v>6.69984397743641</v>
+        <v>9.340135335907062</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.90202418025207</v>
+        <v>14.06310831864399</v>
       </c>
       <c r="D15">
-        <v>3.412643051441674</v>
+        <v>6.579455324046131</v>
       </c>
       <c r="E15">
-        <v>13.65436576882431</v>
+        <v>14.27953807301824</v>
       </c>
       <c r="F15">
-        <v>32.16083782565446</v>
+        <v>34.31185103029748</v>
       </c>
       <c r="G15">
-        <v>47.22647722367753</v>
+        <v>46.44975423901196</v>
       </c>
       <c r="H15">
-        <v>12.87997180254469</v>
+        <v>18.18785139892962</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.67826970307164</v>
+        <v>21.56228557290989</v>
       </c>
       <c r="L15">
-        <v>6.680255314896712</v>
+        <v>9.339617403629893</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.45650044473023</v>
+        <v>13.97973686485195</v>
       </c>
       <c r="D16">
-        <v>3.510379359396908</v>
+        <v>6.601381303502905</v>
       </c>
       <c r="E16">
-        <v>13.27788242053725</v>
+        <v>14.22423047570081</v>
       </c>
       <c r="F16">
-        <v>31.31260149428508</v>
+        <v>34.26680943044219</v>
       </c>
       <c r="G16">
-        <v>45.84616795628062</v>
+        <v>46.35397879380251</v>
       </c>
       <c r="H16">
-        <v>12.70642993978917</v>
+        <v>18.21752363088574</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.60014685452602</v>
+        <v>21.18484683026398</v>
       </c>
       <c r="L16">
-        <v>6.569190721133773</v>
+        <v>9.337146068017104</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.18150678286589</v>
+        <v>13.92931729415678</v>
       </c>
       <c r="D17">
-        <v>3.570188944432848</v>
+        <v>6.615065453080303</v>
       </c>
       <c r="E17">
-        <v>13.04640181438336</v>
+        <v>14.19112308866488</v>
       </c>
       <c r="F17">
-        <v>30.8018007454479</v>
+        <v>34.24278739835679</v>
       </c>
       <c r="G17">
-        <v>45.01446607956937</v>
+        <v>46.30097369968555</v>
       </c>
       <c r="H17">
-        <v>12.60669823261402</v>
+        <v>18.23714166139102</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.92557867851789</v>
+        <v>20.95068091773945</v>
       </c>
       <c r="L17">
-        <v>6.502092640234807</v>
+        <v>9.336073473688314</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.02270694541738</v>
+        <v>13.90059206332577</v>
       </c>
       <c r="D18">
-        <v>3.604549894340961</v>
+        <v>6.623022251095613</v>
       </c>
       <c r="E18">
-        <v>12.91305972543339</v>
+        <v>14.17238679439242</v>
       </c>
       <c r="F18">
-        <v>30.51145255170835</v>
+        <v>34.23029569141197</v>
       </c>
       <c r="G18">
-        <v>44.54153305449245</v>
+        <v>46.27259891908308</v>
       </c>
       <c r="H18">
-        <v>12.55172543260993</v>
+        <v>18.24894328677685</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.53264838503211</v>
+        <v>20.81507784615845</v>
       </c>
       <c r="L18">
-        <v>6.463871461020415</v>
+        <v>9.335619610996112</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.96883087143123</v>
+        <v>13.89091412863993</v>
       </c>
       <c r="D19">
-        <v>3.616178439409342</v>
+        <v>6.625731092686064</v>
       </c>
       <c r="E19">
-        <v>12.8678774436887</v>
+        <v>14.16609597662794</v>
       </c>
       <c r="F19">
-        <v>30.4137331280527</v>
+        <v>34.22629364046485</v>
       </c>
       <c r="G19">
-        <v>44.38233251783874</v>
+        <v>46.26335435324622</v>
       </c>
       <c r="H19">
-        <v>12.533515318977</v>
+        <v>18.25302784680628</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.39875243249434</v>
+        <v>20.76901195233486</v>
       </c>
       <c r="L19">
-        <v>6.450993530644513</v>
+        <v>9.335493953919659</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.21084537980974</v>
+        <v>13.93465628273255</v>
       </c>
       <c r="D20">
-        <v>3.563826574095764</v>
+        <v>6.613599854509768</v>
       </c>
       <c r="E20">
-        <v>13.07106393609235</v>
+        <v>14.19461582696028</v>
       </c>
       <c r="F20">
-        <v>30.85581791387596</v>
+        <v>34.24520740162944</v>
       </c>
       <c r="G20">
-        <v>45.10243719583015</v>
+        <v>46.30639753170326</v>
       </c>
       <c r="H20">
-        <v>12.61706560403338</v>
+        <v>18.23499964313386</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.99789644541482</v>
+        <v>20.97570424300522</v>
       </c>
       <c r="L20">
-        <v>6.509196672146271</v>
+        <v>9.336170778189349</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.01654572765703</v>
+        <v>14.08485113329343</v>
       </c>
       <c r="D21">
-        <v>3.387351600283938</v>
+        <v>6.573866333153632</v>
       </c>
       <c r="E21">
-        <v>13.75141684429295</v>
+        <v>14.29406811545072</v>
       </c>
       <c r="F21">
-        <v>32.38285380583316</v>
+        <v>34.32459658543301</v>
       </c>
       <c r="G21">
-        <v>47.58760264359583</v>
+        <v>46.4762591985526</v>
       </c>
       <c r="H21">
-        <v>12.92692671963573</v>
+        <v>18.18062985781916</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.95262738278381</v>
+        <v>21.65888716265846</v>
       </c>
       <c r="L21">
-        <v>6.709258720459987</v>
+        <v>9.340392481132879</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.53788824354801</v>
+        <v>14.18528878732111</v>
       </c>
       <c r="D22">
-        <v>3.271348676337607</v>
+        <v>6.548657755109104</v>
       </c>
       <c r="E22">
-        <v>14.19456760948427</v>
+        <v>14.36170343721486</v>
       </c>
       <c r="F22">
-        <v>33.41316575368955</v>
+        <v>34.38830321999558</v>
       </c>
       <c r="G22">
-        <v>49.26273766896747</v>
+        <v>46.60608404724653</v>
       </c>
       <c r="H22">
-        <v>13.15252111919334</v>
+        <v>18.1497533884998</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.18829394899365</v>
+        <v>22.09628306991631</v>
       </c>
       <c r="L22">
-        <v>6.843536604610266</v>
+        <v>9.344601575726713</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.26008944746182</v>
+        <v>14.13148338305824</v>
       </c>
       <c r="D23">
-        <v>3.333337536140847</v>
+        <v>6.562042862757533</v>
       </c>
       <c r="E23">
-        <v>13.95816561784372</v>
+        <v>14.32536833454172</v>
       </c>
       <c r="F23">
-        <v>32.8602179767632</v>
+        <v>34.35321976894768</v>
       </c>
       <c r="G23">
-        <v>48.36387207451286</v>
+        <v>46.5350742420004</v>
       </c>
       <c r="H23">
-        <v>13.02991537114237</v>
+        <v>18.16580441260281</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.53251745054374</v>
+        <v>21.86371244734212</v>
       </c>
       <c r="L23">
-        <v>6.771535017684085</v>
+        <v>9.342222559125972</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.19758359088383</v>
+        <v>13.93224170913887</v>
       </c>
       <c r="D24">
-        <v>3.566703074217508</v>
+        <v>6.614262172471956</v>
       </c>
       <c r="E24">
-        <v>13.05991500539865</v>
+        <v>14.19303583210162</v>
       </c>
       <c r="F24">
-        <v>30.83138643234755</v>
+        <v>34.24410921045371</v>
       </c>
       <c r="G24">
-        <v>45.06264920752317</v>
+        <v>46.30393888089834</v>
       </c>
       <c r="H24">
-        <v>12.61237117079785</v>
+        <v>18.23596642120405</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.96521752824149</v>
+        <v>20.96439423305725</v>
       </c>
       <c r="L24">
-        <v>6.505983837553145</v>
+        <v>9.336126279762203</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.02753286931952</v>
+        <v>13.72792409086884</v>
       </c>
       <c r="D25">
-        <v>3.817075379634587</v>
+        <v>6.673882670476989</v>
       </c>
       <c r="E25">
-        <v>12.08350018797351</v>
+        <v>14.06204411209525</v>
       </c>
       <c r="F25">
-        <v>28.77467454611287</v>
+        <v>34.17703270905577</v>
       </c>
       <c r="G25">
-        <v>41.70953766606939</v>
+        <v>46.13531279588487</v>
       </c>
       <c r="H25">
-        <v>12.2523758127998</v>
+        <v>18.33141689513956</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.00627040870131</v>
+        <v>19.95995762622882</v>
       </c>
       <c r="L25">
-        <v>6.233709494374191</v>
+        <v>9.335784563407531</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_163/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.58741923555912</v>
+        <v>12.14547106255171</v>
       </c>
       <c r="D2">
-        <v>6.720658268151265</v>
+        <v>4.001917415880247</v>
       </c>
       <c r="E2">
-        <v>13.97609749764188</v>
+        <v>11.35841866376856</v>
       </c>
       <c r="F2">
-        <v>34.17082442443397</v>
+        <v>27.36865265149499</v>
       </c>
       <c r="G2">
-        <v>46.08006165244603</v>
+        <v>39.41249415171484</v>
       </c>
       <c r="H2">
-        <v>18.41844481081619</v>
+        <v>12.05563202500632</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.19654424807838</v>
+        <v>24.65437979956477</v>
       </c>
       <c r="L2">
-        <v>9.340893797938046</v>
+        <v>6.044637010026706</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.49877667795651</v>
+        <v>11.53607424653036</v>
       </c>
       <c r="D3">
-        <v>6.754175961686927</v>
+        <v>4.128271531784873</v>
       </c>
       <c r="E3">
-        <v>13.92457439419824</v>
+        <v>10.86430154278526</v>
       </c>
       <c r="F3">
-        <v>34.1932811437545</v>
+        <v>26.48207898281808</v>
       </c>
       <c r="G3">
-        <v>46.08515575831538</v>
+        <v>37.96182604057336</v>
       </c>
       <c r="H3">
-        <v>18.48773871638137</v>
+        <v>11.96020695656171</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.66762445450748</v>
+        <v>22.94796304871823</v>
       </c>
       <c r="L3">
-        <v>9.347696569258241</v>
+        <v>5.923368153629937</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.44771201267229</v>
+        <v>11.15693325445431</v>
       </c>
       <c r="D4">
-        <v>6.775659834975191</v>
+        <v>4.20662741044756</v>
       </c>
       <c r="E4">
-        <v>13.89630490672468</v>
+        <v>10.56020785448839</v>
       </c>
       <c r="F4">
-        <v>34.22010607048886</v>
+        <v>25.97012640698924</v>
       </c>
       <c r="G4">
-        <v>46.1090620774309</v>
+        <v>37.12331908384156</v>
       </c>
       <c r="H4">
-        <v>18.53532751736474</v>
+        <v>11.91873897081431</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.33841579050765</v>
+        <v>21.84337397590132</v>
       </c>
       <c r="L4">
-        <v>9.353518925269212</v>
+        <v>5.852240138251242</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.42776487924886</v>
+        <v>11.00133543879311</v>
       </c>
       <c r="D5">
-        <v>6.784643008891661</v>
+        <v>4.238785870009303</v>
       </c>
       <c r="E5">
-        <v>13.88563803769561</v>
+        <v>10.43623431996177</v>
       </c>
       <c r="F5">
-        <v>34.23429625013485</v>
+        <v>25.76960467437793</v>
       </c>
       <c r="G5">
-        <v>46.12399394047645</v>
+        <v>36.7947323715487</v>
       </c>
       <c r="H5">
-        <v>18.55598135030281</v>
+        <v>11.9059107690506</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.20334345798747</v>
+        <v>21.37876595532479</v>
       </c>
       <c r="L5">
-        <v>9.356304997364532</v>
+        <v>5.824086226145261</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.42450520068803</v>
+        <v>10.97543763301581</v>
       </c>
       <c r="D6">
-        <v>6.786148478551269</v>
+        <v>4.244140452844803</v>
       </c>
       <c r="E6">
-        <v>13.88391851950358</v>
+        <v>10.41564948031891</v>
       </c>
       <c r="F6">
-        <v>34.23684872601761</v>
+        <v>25.73679586884535</v>
       </c>
       <c r="G6">
-        <v>46.12678568244016</v>
+        <v>36.74096155145735</v>
       </c>
       <c r="H6">
-        <v>18.55948686261329</v>
+        <v>11.90401958682789</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.18086552919701</v>
+        <v>21.30073840667215</v>
       </c>
       <c r="L6">
-        <v>9.356792579528097</v>
+        <v>5.819461316687377</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.44743948701665</v>
+        <v>11.15483901004206</v>
       </c>
       <c r="D7">
-        <v>6.775780059407867</v>
+        <v>4.207060145727993</v>
       </c>
       <c r="E7">
-        <v>13.89615758693459</v>
+        <v>10.55853593751855</v>
       </c>
       <c r="F7">
-        <v>34.22028427715524</v>
+        <v>25.96738936609902</v>
       </c>
       <c r="G7">
-        <v>46.1092424911614</v>
+        <v>37.11883460547348</v>
       </c>
       <c r="H7">
-        <v>18.53560096567134</v>
+        <v>11.91854979656001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.3365975961764</v>
+        <v>21.83716697345187</v>
       </c>
       <c r="L7">
-        <v>9.353554825853475</v>
+        <v>5.851857086997259</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.55616791500774</v>
+        <v>11.93646389337319</v>
       </c>
       <c r="D8">
-        <v>6.732028193244759</v>
+        <v>4.045344236601201</v>
       </c>
       <c r="E8">
-        <v>13.95763812969205</v>
+        <v>11.18826019818781</v>
       </c>
       <c r="F8">
-        <v>34.17585099168849</v>
+        <v>27.056212429042</v>
       </c>
       <c r="G8">
-        <v>46.07748616335272</v>
+        <v>38.90146449041676</v>
       </c>
       <c r="H8">
-        <v>18.44128678095553</v>
+        <v>12.01903428165893</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.01521369255009</v>
+        <v>24.07768999972447</v>
       </c>
       <c r="L8">
-        <v>9.34289771111186</v>
+        <v>6.00212796429402</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.79525916540423</v>
+        <v>13.42493591184511</v>
       </c>
       <c r="D9">
-        <v>6.653355436798041</v>
+        <v>3.732768087452461</v>
       </c>
       <c r="E9">
-        <v>14.10456257137698</v>
+        <v>12.41344406443582</v>
       </c>
       <c r="F9">
-        <v>34.19289072568493</v>
+        <v>29.45042255439185</v>
       </c>
       <c r="G9">
-        <v>46.18136590608806</v>
+        <v>42.81207196515467</v>
       </c>
       <c r="H9">
-        <v>18.296645232784</v>
+        <v>12.36240302810078</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.30241913223279</v>
+        <v>28.02927467148488</v>
       </c>
       <c r="L9">
-        <v>9.335066666363735</v>
+        <v>6.323613313220372</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.98552675001375</v>
+        <v>14.48779450205438</v>
       </c>
       <c r="D10">
-        <v>6.599831482574789</v>
+        <v>3.50354820031954</v>
       </c>
       <c r="E10">
-        <v>14.2280494557125</v>
+        <v>13.30426933634519</v>
       </c>
       <c r="F10">
-        <v>34.26973018164577</v>
+        <v>31.37135936023123</v>
       </c>
       <c r="G10">
-        <v>46.36031335519947</v>
+        <v>45.94181470334279</v>
       </c>
       <c r="H10">
-        <v>18.21535540670484</v>
+        <v>12.71813989922137</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.21143917509981</v>
+        <v>30.67645761642358</v>
       </c>
       <c r="L10">
-        <v>9.337290548761709</v>
+        <v>6.576898089316711</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.07498332396718</v>
+        <v>14.96465046019204</v>
       </c>
       <c r="D11">
-        <v>6.576396636073274</v>
+        <v>3.398820922833494</v>
       </c>
       <c r="E11">
-        <v>14.28746858327187</v>
+        <v>13.7074247176494</v>
       </c>
       <c r="F11">
-        <v>34.31876344383348</v>
+        <v>32.28205054581149</v>
       </c>
       <c r="G11">
-        <v>46.4641556957265</v>
+        <v>47.4236462011857</v>
       </c>
       <c r="H11">
-        <v>18.18388220176914</v>
+        <v>12.90553162560863</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.6151344684222</v>
+        <v>31.82843812479643</v>
       </c>
       <c r="L11">
-        <v>9.340034369968093</v>
+        <v>6.696093342044304</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.10925123056529</v>
+        <v>15.14431934929541</v>
       </c>
       <c r="D12">
-        <v>6.567652758871183</v>
+        <v>3.359052219253852</v>
       </c>
       <c r="E12">
-        <v>14.31042293890505</v>
+        <v>13.85982634740147</v>
       </c>
       <c r="F12">
-        <v>34.33935945869223</v>
+        <v>32.63242337202059</v>
       </c>
       <c r="G12">
-        <v>46.50670642232494</v>
+        <v>47.99347502847856</v>
       </c>
       <c r="H12">
-        <v>18.17276249312282</v>
+        <v>12.98043036931431</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.76645282508614</v>
+        <v>32.25745769557789</v>
       </c>
       <c r="L12">
-        <v>9.341322195112797</v>
+        <v>6.741831307499112</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.10185396340734</v>
+        <v>15.10566351971081</v>
       </c>
       <c r="D13">
-        <v>6.569530125369452</v>
+        <v>3.367622771090933</v>
       </c>
       <c r="E13">
-        <v>14.30545934701771</v>
+        <v>13.82701474454374</v>
       </c>
       <c r="F13">
-        <v>34.33483351016366</v>
+        <v>32.55671471357343</v>
       </c>
       <c r="G13">
-        <v>46.49739885211202</v>
+        <v>47.87035858309412</v>
       </c>
       <c r="H13">
-        <v>18.17512170173138</v>
+        <v>12.96412017042872</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.73393483492936</v>
+        <v>32.16537618836566</v>
       </c>
       <c r="L13">
-        <v>9.341033779447853</v>
+        <v>6.731953501325859</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.07779484074204</v>
+        <v>14.97944966070351</v>
       </c>
       <c r="D14">
-        <v>6.57567466430867</v>
+        <v>3.39555160808351</v>
       </c>
       <c r="E14">
-        <v>14.28934803752487</v>
+        <v>13.71996786189586</v>
       </c>
       <c r="F14">
-        <v>34.32041723298646</v>
+        <v>32.31076387841421</v>
       </c>
       <c r="G14">
-        <v>46.46759169458416</v>
+        <v>47.47034968242917</v>
       </c>
       <c r="H14">
-        <v>18.18295133526755</v>
+        <v>12.91161313673745</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.62761538511033</v>
+        <v>31.86387648791752</v>
       </c>
       <c r="L14">
-        <v>9.340135335907062</v>
+        <v>6.699843977436435</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.06310831864399</v>
+        <v>14.90202418025208</v>
       </c>
       <c r="D15">
-        <v>6.579455324046131</v>
+        <v>3.412643051441611</v>
       </c>
       <c r="E15">
-        <v>14.27953807301824</v>
+        <v>13.6543657688243</v>
       </c>
       <c r="F15">
-        <v>34.31185103029748</v>
+        <v>32.16083782565446</v>
       </c>
       <c r="G15">
-        <v>46.44975423901196</v>
+        <v>47.22647722367754</v>
       </c>
       <c r="H15">
-        <v>18.18785139892962</v>
+        <v>12.87997180254469</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.56228557290989</v>
+        <v>31.67826970307166</v>
       </c>
       <c r="L15">
-        <v>9.339617403629893</v>
+        <v>6.680255314896723</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.97973686485195</v>
+        <v>14.45650044473023</v>
       </c>
       <c r="D16">
-        <v>6.601381303502905</v>
+        <v>3.510379359396904</v>
       </c>
       <c r="E16">
-        <v>14.22423047570081</v>
+        <v>13.27788242053725</v>
       </c>
       <c r="F16">
-        <v>34.26680943044219</v>
+        <v>31.31260149428505</v>
       </c>
       <c r="G16">
-        <v>46.35397879380251</v>
+        <v>45.84616795628063</v>
       </c>
       <c r="H16">
-        <v>18.21752363088574</v>
+        <v>12.70642993978913</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.18484683026398</v>
+        <v>30.60014685452608</v>
       </c>
       <c r="L16">
-        <v>9.337146068017104</v>
+        <v>6.569190721133733</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.92931729415678</v>
+        <v>14.18150678286588</v>
       </c>
       <c r="D17">
-        <v>6.615065453080303</v>
+        <v>3.57018894443285</v>
       </c>
       <c r="E17">
-        <v>14.19112308866488</v>
+        <v>13.04640181438336</v>
       </c>
       <c r="F17">
-        <v>34.24278739835679</v>
+        <v>30.80180074544787</v>
       </c>
       <c r="G17">
-        <v>46.30097369968555</v>
+        <v>45.01446607956937</v>
       </c>
       <c r="H17">
-        <v>18.23714166139102</v>
+        <v>12.60669823261397</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.95068091773945</v>
+        <v>29.92557867851797</v>
       </c>
       <c r="L17">
-        <v>9.336073473688314</v>
+        <v>6.502092640234777</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.90059206332577</v>
+        <v>14.02270694541733</v>
       </c>
       <c r="D18">
-        <v>6.623022251095613</v>
+        <v>3.604549894341093</v>
       </c>
       <c r="E18">
-        <v>14.17238679439242</v>
+        <v>12.91305972543338</v>
       </c>
       <c r="F18">
-        <v>34.23029569141197</v>
+        <v>30.51145255170833</v>
       </c>
       <c r="G18">
-        <v>46.27259891908308</v>
+        <v>44.5415330544925</v>
       </c>
       <c r="H18">
-        <v>18.24894328677685</v>
+        <v>12.55172543260992</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.81507784615845</v>
+        <v>29.53264838503211</v>
       </c>
       <c r="L18">
-        <v>9.335619610996112</v>
+        <v>6.463871461020444</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.89091412863993</v>
+        <v>13.96883087143123</v>
       </c>
       <c r="D19">
-        <v>6.625731092686064</v>
+        <v>3.616178439409471</v>
       </c>
       <c r="E19">
-        <v>14.16609597662794</v>
+        <v>12.86787744368869</v>
       </c>
       <c r="F19">
-        <v>34.22629364046485</v>
+        <v>30.41373312805268</v>
       </c>
       <c r="G19">
-        <v>46.26335435324622</v>
+        <v>44.38233251783877</v>
       </c>
       <c r="H19">
-        <v>18.25302784680628</v>
+        <v>12.533515318977</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.76901195233486</v>
+        <v>29.39875243249441</v>
       </c>
       <c r="L19">
-        <v>9.335493953919659</v>
+        <v>6.450993530644496</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.93465628273255</v>
+        <v>14.21084537980974</v>
       </c>
       <c r="D20">
-        <v>6.613599854509768</v>
+        <v>3.563826574095833</v>
       </c>
       <c r="E20">
-        <v>14.19461582696028</v>
+        <v>13.07106393609237</v>
       </c>
       <c r="F20">
-        <v>34.24520740162944</v>
+        <v>30.85581791387593</v>
       </c>
       <c r="G20">
-        <v>46.30639753170326</v>
+        <v>45.10243719583008</v>
       </c>
       <c r="H20">
-        <v>18.23499964313386</v>
+        <v>12.61706560403332</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.97570424300522</v>
+        <v>29.99789644541486</v>
       </c>
       <c r="L20">
-        <v>9.336170778189349</v>
+        <v>6.509196672146309</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.08485113329343</v>
+        <v>15.01654572765707</v>
       </c>
       <c r="D21">
-        <v>6.573866333153632</v>
+        <v>3.387351600283869</v>
       </c>
       <c r="E21">
-        <v>14.29406811545072</v>
+        <v>13.75141684429299</v>
       </c>
       <c r="F21">
-        <v>34.32459658543301</v>
+        <v>32.38285380583324</v>
       </c>
       <c r="G21">
-        <v>46.4762591985526</v>
+        <v>47.58760264359599</v>
       </c>
       <c r="H21">
-        <v>18.18062985781916</v>
+        <v>12.92692671963574</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.65888716265846</v>
+        <v>31.9526273827838</v>
       </c>
       <c r="L21">
-        <v>9.340392481132879</v>
+        <v>6.709258720460014</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.18528878732111</v>
+        <v>15.53788824354798</v>
       </c>
       <c r="D22">
-        <v>6.548657755109104</v>
+        <v>3.271348676337738</v>
       </c>
       <c r="E22">
-        <v>14.36170343721486</v>
+        <v>14.19456760948425</v>
       </c>
       <c r="F22">
-        <v>34.38830321999558</v>
+        <v>33.41316575368944</v>
       </c>
       <c r="G22">
-        <v>46.60608404724653</v>
+        <v>49.26273766896725</v>
       </c>
       <c r="H22">
-        <v>18.1497533884998</v>
+        <v>13.15252111919333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.09628306991631</v>
+        <v>33.18829394899362</v>
       </c>
       <c r="L22">
-        <v>9.344601575726713</v>
+        <v>6.843536604610255</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.13148338305824</v>
+        <v>15.26008944746183</v>
       </c>
       <c r="D23">
-        <v>6.562042862757533</v>
+        <v>3.33333753614071</v>
       </c>
       <c r="E23">
-        <v>14.32536833454172</v>
+        <v>13.95816561784375</v>
       </c>
       <c r="F23">
-        <v>34.35321976894768</v>
+        <v>32.86021797676312</v>
       </c>
       <c r="G23">
-        <v>46.5350742420004</v>
+        <v>48.36387207451273</v>
       </c>
       <c r="H23">
-        <v>18.16580441260281</v>
+        <v>13.02991537114238</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.86371244734212</v>
+        <v>32.53251745054371</v>
       </c>
       <c r="L23">
-        <v>9.342222559125972</v>
+        <v>6.771535017684122</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.93224170913887</v>
+        <v>14.1975835908838</v>
       </c>
       <c r="D24">
-        <v>6.614262172471956</v>
+        <v>3.5667030742175</v>
       </c>
       <c r="E24">
-        <v>14.19303583210162</v>
+        <v>13.05991500539866</v>
       </c>
       <c r="F24">
-        <v>34.24410921045371</v>
+        <v>30.83138643234757</v>
       </c>
       <c r="G24">
-        <v>46.30393888089834</v>
+        <v>45.06264920752319</v>
       </c>
       <c r="H24">
-        <v>18.23596642120405</v>
+        <v>12.61237117079787</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.96439423305725</v>
+        <v>29.96521752824149</v>
       </c>
       <c r="L24">
-        <v>9.336126279762203</v>
+        <v>6.505983837553185</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.72792409086884</v>
+        <v>13.02753286931953</v>
       </c>
       <c r="D25">
-        <v>6.673882670476989</v>
+        <v>3.81707537963465</v>
       </c>
       <c r="E25">
-        <v>14.06204411209525</v>
+        <v>12.08350018797355</v>
       </c>
       <c r="F25">
-        <v>34.17703270905577</v>
+        <v>28.77467454611294</v>
       </c>
       <c r="G25">
-        <v>46.13531279588487</v>
+        <v>41.70953766606952</v>
       </c>
       <c r="H25">
-        <v>18.33141689513956</v>
+        <v>12.2523758127999</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.95995762622882</v>
+        <v>27.00627040870127</v>
       </c>
       <c r="L25">
-        <v>9.335784563407531</v>
+        <v>6.233709494374216</v>
       </c>
       <c r="M25">
         <v>0</v>
